--- a/example.xlsx
+++ b/example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="628">
   <si>
     <t>next</t>
   </si>
@@ -22,10 +22,10 @@
     <t>[nɛkst]</t>
   </si>
   <si>
-    <t>prep. 靠近；居於…之後</t>
-  </si>
-  <si>
-    <t>n. 下一個</t>
+    <t>prep. 靠近；居于…之后</t>
+  </si>
+  <si>
+    <t>n. 下一个</t>
   </si>
   <si>
     <t>adj. 下一个的；其次的；贴近的</t>
@@ -46,10 +46,10 @@
     <t>[kʌm]</t>
   </si>
   <si>
-    <t>vi. 來；開始；出現；發生；變成；到達</t>
-  </si>
-  <si>
-    <t>vt. 做；假裝；將滿（…歲）</t>
+    <t>vi. 来；开始；出现；发生；变成；到达</t>
+  </si>
+  <si>
+    <t>vt. 做；假装；将满（…岁）</t>
   </si>
   <si>
     <t>int. 嗨！</t>
@@ -67,10 +67,10 @@
     <t>[ʃo]</t>
   </si>
   <si>
-    <t>n. 顯示；表演；炫耀</t>
-  </si>
-  <si>
-    <t>vt. 顯示；說明；演出；展出</t>
+    <t>n. 显示；表演；炫耀</t>
+  </si>
+  <si>
+    <t>vt. 显示；说明；演出；展出</t>
   </si>
   <si>
     <t>vi. 显示；说明；指示</t>
@@ -79,16 +79,19 @@
     <t>watch TV</t>
   </si>
   <si>
+    <t>[wɑtʃ]</t>
+  </si>
+  <si>
     <t>pen</t>
   </si>
   <si>
     <t>[pɛn]</t>
   </si>
   <si>
-    <t>n. 鋼筆；作家；圍欄</t>
-  </si>
-  <si>
-    <t>vt. 寫；關入欄中</t>
+    <t>n. 钢笔；作家；围栏</t>
+  </si>
+  <si>
+    <t>vt. 写；关入栏中</t>
   </si>
   <si>
     <t>n. (Pen)人名；(法)庞；(俄、塞、英、意)佩恩；(柬)宾</t>
@@ -121,7 +124,7 @@
     <t>[waɪf]</t>
   </si>
   <si>
-    <t>n. 妻子，已婚婦女；夫人</t>
+    <t>n. 妻子，已婚妇女；夫人</t>
   </si>
   <si>
     <t>husband</t>
@@ -133,7 +136,7 @@
     <t>n. 丈夫</t>
   </si>
   <si>
-    <t>vt. 節約地使用（或管理）</t>
+    <t>vt. 节约地使用（或管理）</t>
   </si>
   <si>
     <t>n. (Husband)人名；(英)赫斯本德</t>
@@ -145,7 +148,7 @@
     <t>['ɔlwez]</t>
   </si>
   <si>
-    <t>adv. 永遠，一直；總是；常常</t>
+    <t>adv. 永远，一直；总是；常常</t>
   </si>
   <si>
     <t>how often</t>
@@ -175,10 +178,10 @@
     <t>['stʌdi]</t>
   </si>
   <si>
-    <t>n. 學習，研究；課題；書房；學問</t>
-  </si>
-  <si>
-    <t>vt. 學習；考慮；攻讀；細察</t>
+    <t>n. 学习，研究；课题；书房；学问</t>
+  </si>
+  <si>
+    <t>vt. 学习；考虑；攻读；细察</t>
   </si>
   <si>
     <t>vi. 研究；用功</t>
@@ -223,7 +226,7 @@
     <t>n. 小孩；小山羊</t>
   </si>
   <si>
-    <t>adj. 小山羊皮製的；較年幼的</t>
+    <t>adj. 小山羊皮制的；较年幼的</t>
   </si>
   <si>
     <t>vt. 欺骗；取笑；戏弄</t>
@@ -247,10 +250,10 @@
     <t>['pɛnsl]</t>
   </si>
   <si>
-    <t>n. 鉛筆；筆狀物</t>
-  </si>
-  <si>
-    <t>vt. 用鉛筆寫；用眉筆塗</t>
+    <t>n. 铅笔；笔状物</t>
+  </si>
+  <si>
+    <t>vt. 用铅笔写；用眉笔涂</t>
   </si>
   <si>
     <t>vi. 成铅笔状</t>
@@ -262,10 +265,10 @@
     <t>[læst]</t>
   </si>
   <si>
-    <t>n. 末尾，最後；上個；鞋楦（做鞋的模型）</t>
-  </si>
-  <si>
-    <t>adj. 最後的；最近的，最新的；僅剩的；最不可能…的</t>
+    <t>n. 末尾，最后；上个；鞋楦（做鞋的模型）</t>
+  </si>
+  <si>
+    <t>adj. 最后的；最近的，最新的；仅剩的；最不可能…的</t>
   </si>
   <si>
     <t>vt. 度过，拖过；使维持</t>
@@ -274,6 +277,9 @@
     <t>adv. 最后地；上次，最近；最后一点</t>
   </si>
   <si>
+    <t>vi. 持续；维持，够用；持久</t>
+  </si>
+  <si>
     <t>bottle</t>
   </si>
   <si>
@@ -283,7 +289,7 @@
     <t>n. 瓶子；一瓶的容量</t>
   </si>
   <si>
-    <t>vt. 控制；把…裝入瓶中</t>
+    <t>vt. 控制；把…装入瓶中</t>
   </si>
   <si>
     <t>vi. （街头艺人演出后）收拢钱币</t>
@@ -298,13 +304,16 @@
     <t>There is</t>
   </si>
   <si>
+    <t>[ɪz]</t>
+  </si>
+  <si>
     <t>Friday</t>
   </si>
   <si>
     <t>[ˈfraɪde; (occas.) ˈfraɪdi]</t>
   </si>
   <si>
-    <t>n. 星期五；忠僕</t>
+    <t>n. 星期五；忠仆</t>
   </si>
   <si>
     <t>Saturday</t>
@@ -331,10 +340,10 @@
     <t>[hwʌt; hwɑt; wʌt; wɑt]</t>
   </si>
   <si>
-    <t>pron. 什麼；多麼；多少</t>
-  </si>
-  <si>
-    <t>adv. 到什麼程度，在哪一方面</t>
+    <t>pron. 什么；多么；多少</t>
+  </si>
+  <si>
+    <t>adv. 到什么程度，在哪一方面</t>
   </si>
   <si>
     <t>adj. 什么；多么；何等</t>
@@ -349,10 +358,10 @@
     <t>['lɪvɪŋ]</t>
   </si>
   <si>
-    <t>n. 生活；生存；生計</t>
-  </si>
-  <si>
-    <t>v. 生活；居住（live的ing形式）；度過</t>
+    <t>n. 生活；生存；生计</t>
+  </si>
+  <si>
+    <t>v. 生活；居住（live的ing形式）；度过</t>
   </si>
   <si>
     <t>adj. 活的；现存的；活跃的；逼真的</t>
@@ -367,7 +376,7 @@
     <t>num. 四分之一</t>
   </si>
   <si>
-    <t>n. 四分之一；地區；季度；一刻鐘；兩角五分；節</t>
+    <t>n. 四分之一；地区；季度；一刻钟；两角五分；节</t>
   </si>
   <si>
     <t>vt. 将…四等分；供某人住宿</t>
@@ -382,10 +391,10 @@
     <t>[ðiz; ðɪs]</t>
   </si>
   <si>
-    <t>adj. 這些的</t>
-  </si>
-  <si>
-    <t>pron. 這些</t>
+    <t>adj. 这些的</t>
+  </si>
+  <si>
+    <t>pron. 这些</t>
   </si>
   <si>
     <t>car</t>
@@ -394,7 +403,7 @@
     <t>[kɑr]</t>
   </si>
   <si>
-    <t>n. 汽車；車廂</t>
+    <t>n. 汽车；车厢</t>
   </si>
   <si>
     <t>September</t>
@@ -427,10 +436,10 @@
     <t>[wɛn]</t>
   </si>
   <si>
-    <t>conj. 考慮到；既然；當…時；在…時；如果</t>
-  </si>
-  <si>
-    <t>n. 時間，時候；日期；場合</t>
+    <t>conj. 考虑到；既然；当…时；在…时；如果</t>
+  </si>
+  <si>
+    <t>n. 时间，时候；日期；场合</t>
   </si>
   <si>
     <t>adv. 什么时候，何时；（用于时间的表达方式之后）在那时；其时；当时</t>
@@ -445,7 +454,7 @@
     <t>[]</t>
   </si>
   <si>
-    <t>聖誕節</t>
+    <t>圣诞节</t>
   </si>
   <si>
     <t>manager</t>
@@ -454,7 +463,7 @@
     <t>['mænɪdʒɚ]</t>
   </si>
   <si>
-    <t>n. 經理；管理人員</t>
+    <t>n. 经理；管理人员</t>
   </si>
   <si>
     <t>birthday</t>
@@ -463,7 +472,7 @@
     <t>['bɝθde]</t>
   </si>
   <si>
-    <t>n. 生日，誕辰；誕生的日子</t>
+    <t>n. 生日，诞辰；诞生的日子</t>
   </si>
   <si>
     <t>road</t>
@@ -472,10 +481,10 @@
     <t>[rod]</t>
   </si>
   <si>
-    <t>n. 公路，馬路；道路；手段</t>
-  </si>
-  <si>
-    <t>adj. （美）巡迴的</t>
+    <t>n. 公路，马路；道路；手段</t>
+  </si>
+  <si>
+    <t>adj. （美）巡回的</t>
   </si>
   <si>
     <t>vt. （狗）沿臭迹追逐（猎物）</t>
@@ -487,7 +496,7 @@
     <t>[ˈerpleɪn]</t>
   </si>
   <si>
-    <t>n. 飛機</t>
+    <t>n. 飞机</t>
   </si>
   <si>
     <t>school</t>
@@ -496,7 +505,7 @@
     <t>[skul]</t>
   </si>
   <si>
-    <t>n. 學校；學院；學派；魚群</t>
+    <t>n. 学校；学院；学派；鱼群</t>
   </si>
   <si>
     <t>vt. 教育</t>
@@ -523,10 +532,10 @@
     <t>[dɛsk]</t>
   </si>
   <si>
-    <t>n. 辦公桌；服務檯；編輯部；（美）講道臺；樂譜架</t>
-  </si>
-  <si>
-    <t>adj. 書桌的；桌上用的；伏案做的</t>
+    <t>n. 办公桌；服务台；编辑部；（美）讲道台；乐谱架</t>
+  </si>
+  <si>
+    <t>adj. 书桌的；桌上用的；伏案做的</t>
   </si>
   <si>
     <t>where</t>
@@ -538,7 +547,7 @@
     <t>conj. 在…的地方</t>
   </si>
   <si>
-    <t>n. 地點</t>
+    <t>n. 地点</t>
   </si>
   <si>
     <t>adv. 在哪里</t>
@@ -553,10 +562,10 @@
     <t>[ɑn]</t>
   </si>
   <si>
-    <t>prep. 向，朝……；關於；在……之上；在……時候</t>
-  </si>
-  <si>
-    <t>adj. 開著的；發生著的，正在進行中</t>
+    <t>prep. 向，朝……；关于；在……之上；在……时候</t>
+  </si>
+  <si>
+    <t>adj. 开着的；发生着的，正在进行中</t>
   </si>
   <si>
     <t>adv. 向前地；作用中，行动中；继续着</t>
@@ -568,10 +577,10 @@
     <t>[æt; ət]</t>
   </si>
   <si>
-    <t>prep. 在（表示存在或出現的地點、場所、位置、空間）；以（某種價格、速度等）；向；達；因為；朝；忙於</t>
-  </si>
-  <si>
-    <t>n. 阿特（老撾貨幣基本單位att）；[化]砹（極不穩定放射性元素）</t>
+    <t>prep. 在（表示存在或出现的地点、场所、位置、空间）；以（某种价格、速度等）；向；达；因为；朝；忙于</t>
+  </si>
+  <si>
+    <t>n. 阿特（老挝货币基本单位att）；[化]砹（极不稳定放射性元素）</t>
   </si>
   <si>
     <t>abbr. 密封的（airtight）；气温（air temperature）</t>
@@ -580,16 +589,19 @@
     <t>MRT station</t>
   </si>
   <si>
+    <t>[ˈsteɪʃən]</t>
+  </si>
+  <si>
     <t>in</t>
   </si>
   <si>
     <t>[ɪn]</t>
   </si>
   <si>
-    <t>prep. 按照（表示方式）；從事於；在…之內</t>
-  </si>
-  <si>
-    <t>n. 執政者；門路；知情者</t>
+    <t>prep. 按照（表示方式）；从事于；在…之内</t>
+  </si>
+  <si>
+    <t>n. 执政者；门路；知情者</t>
   </si>
   <si>
     <t>adj. 在里面的；时髦的</t>
@@ -610,7 +622,7 @@
     <t>[ə'bʌv]</t>
   </si>
   <si>
-    <t>prep. 超過；在……上面；在……之上</t>
+    <t>prep. 超过；在……上面；在……之上</t>
   </si>
   <si>
     <t>n. 上文</t>
@@ -628,7 +640,7 @@
     <t>['hæpɪ]</t>
   </si>
   <si>
-    <t>adj. 幸福的；高興的；巧妙的</t>
+    <t>adj. 幸福的；高兴的；巧妙的</t>
   </si>
   <si>
     <t>who</t>
@@ -637,7 +649,7 @@
     <t>[hu]</t>
   </si>
   <si>
-    <t>pron. 誰；什麼人</t>
+    <t>pron. 谁；什么人</t>
   </si>
   <si>
     <t>teacher</t>
@@ -646,7 +658,7 @@
     <t>['titʃɚ]</t>
   </si>
   <si>
-    <t>n. 教師；導師</t>
+    <t>n. 教师；导师</t>
   </si>
   <si>
     <t>brother</t>
@@ -655,7 +667,7 @@
     <t>['brʌðɚ]</t>
   </si>
   <si>
-    <t>n. 兄弟；同事；戰友</t>
+    <t>n. 兄弟；同事；战友</t>
   </si>
   <si>
     <t>int. 我的老兄！</t>
@@ -685,10 +697,10 @@
     <t>[hwaɪ]</t>
   </si>
   <si>
-    <t>int. 哎呀！什麼？</t>
-  </si>
-  <si>
-    <t>adv. 為什麼</t>
+    <t>int. 哎呀！什么？</t>
+  </si>
+  <si>
+    <t>adv. 为什么</t>
   </si>
   <si>
     <t>because</t>
@@ -697,7 +709,7 @@
     <t>[bɪ'kɔz]</t>
   </si>
   <si>
-    <t>conj. 因為</t>
+    <t>conj. 因为</t>
   </si>
   <si>
     <t>home</t>
@@ -706,10 +718,10 @@
     <t>[hom]</t>
   </si>
   <si>
-    <t>n. 家，住宅；產地；家鄉；避難所</t>
-  </si>
-  <si>
-    <t>adj. 國內的，家庭的；有效的</t>
+    <t>n. 家，住宅；产地；家乡；避难所</t>
+  </si>
+  <si>
+    <t>adj. 国内的，家庭的；有效的</t>
   </si>
   <si>
     <t>vt. 归巢，回家</t>
@@ -733,10 +745,10 @@
     <t>['frɛndli]</t>
   </si>
   <si>
-    <t>adj. 友好的；親切的；支持的；融洽的，和睦的</t>
-  </si>
-  <si>
-    <t>adv. 友善地；溫和地</t>
+    <t>adj. 友好的；亲切的；支持的；融洽的，和睦的</t>
+  </si>
+  <si>
+    <t>adv. 友善地；温和地</t>
   </si>
   <si>
     <t>n. (Friendly)人名；(英)弗兰德利</t>
@@ -748,7 +760,7 @@
     <t>[ɪn'tɛlɪdʒənt]</t>
   </si>
   <si>
-    <t>adj. 智能的；聰明的；理解力強的</t>
+    <t>adj. 智能的；聪明的；理解力强的</t>
   </si>
   <si>
     <t>handsome</t>
@@ -760,7 +772,7 @@
     <t>['ɪntrəstɪŋ]</t>
   </si>
   <si>
-    <t>adj. 有趣的；引起興趣的，令人關注的</t>
+    <t>adj. 有趣的；引起兴趣的，令人关注的</t>
   </si>
   <si>
     <t>pretty</t>
@@ -772,7 +784,7 @@
     <t>n. 漂亮的人</t>
   </si>
   <si>
-    <t>adj. 漂亮的；可愛的；優美的</t>
+    <t>adj. 漂亮的；可爱的；优美的</t>
   </si>
   <si>
     <t>adv. 相当地；颇</t>
@@ -784,10 +796,10 @@
     <t>[bɔrd]</t>
   </si>
   <si>
-    <t>v. 使厭煩（bore的過去式）；煩擾</t>
-  </si>
-  <si>
-    <t>adj. 無聊的；無趣的；煩人的</t>
+    <t>v. 使厌烦（bore的过去式）；烦扰</t>
+  </si>
+  <si>
+    <t>adj. 无聊的；无趣的；烦人的</t>
   </si>
   <si>
     <t>stupid</t>
@@ -811,7 +823,7 @@
     <t>[sæd]</t>
   </si>
   <si>
-    <t>adj. 難過的；悲哀的，令人悲痛的；悽慘的，陰鬱的（形容顏色）</t>
+    <t>adj. 难过的；悲哀的，令人悲痛的；凄惨的，阴郁的（形容颜色）</t>
   </si>
   <si>
     <t>wise</t>
@@ -820,10 +832,10 @@
     <t>[waɪz]</t>
   </si>
   <si>
-    <t>adj. 明智的；聰明的；博學的</t>
-  </si>
-  <si>
-    <t>vt. 使知道；教導</t>
+    <t>adj. 明智的；聪明的；博学的</t>
+  </si>
+  <si>
+    <t>vt. 使知道；教导</t>
   </si>
   <si>
     <t>vi. 了解</t>
@@ -835,7 +847,7 @@
     <t>['dʒɛnərəs]</t>
   </si>
   <si>
-    <t>adj. 慷慨的，大方的；寬宏大量的；有雅量的</t>
+    <t>adj. 慷慨的，大方的；宽宏大量的；有雅量的</t>
   </si>
   <si>
     <t>smart</t>
@@ -844,7 +856,7 @@
     <t>[smɑrt]</t>
   </si>
   <si>
-    <t>adj. 聰明的；巧妙的；敏捷的；厲害的；瀟灑的；劇烈的；時髦的</t>
+    <t>adj. 聪明的；巧妙的；敏捷的；厉害的；潇洒的；剧烈的；时髦的</t>
   </si>
   <si>
     <t>boring</t>
@@ -853,10 +865,10 @@
     <t>['bɔrɪŋ]</t>
   </si>
   <si>
-    <t>n. 鑽孔</t>
-  </si>
-  <si>
-    <t>adj. 無聊的；令人厭煩的</t>
+    <t>n. 钻孔</t>
+  </si>
+  <si>
+    <t>adj. 无聊的；令人厌烦的</t>
   </si>
   <si>
     <t>v. 钻孔；使厌烦；挖空（bore的ing形式）</t>
@@ -868,7 +880,7 @@
     <t>['bæskɪtbɔl]</t>
   </si>
   <si>
-    <t>n. 籃球；籃球運動</t>
+    <t>n. 篮球；篮球运动</t>
   </si>
   <si>
     <t>assistant</t>
@@ -880,7 +892,7 @@
     <t>n. 助手，助理，助教</t>
   </si>
   <si>
-    <t>adj. 輔助的，助理的；有幫助的</t>
+    <t>adj. 辅助的，助理的；有帮助的</t>
   </si>
   <si>
     <t>student</t>
@@ -889,7 +901,7 @@
     <t>['studnt]</t>
   </si>
   <si>
-    <t>n. 學生；學者</t>
+    <t>n. 学生；学者</t>
   </si>
   <si>
     <t>accountant</t>
@@ -898,7 +910,7 @@
     <t>[ə'kaʊntənt]</t>
   </si>
   <si>
-    <t>n. 會計師；會計人員</t>
+    <t>n. 会计师；会计人员</t>
   </si>
   <si>
     <t>salesman</t>
@@ -907,7 +919,7 @@
     <t>['selzmən]</t>
   </si>
   <si>
-    <t>n. 推銷員；售貨員</t>
+    <t>n. 推销员；售货员</t>
   </si>
   <si>
     <t>housewife</t>
@@ -916,7 +928,7 @@
     <t>['haʊs'waɪf]</t>
   </si>
   <si>
-    <t>n. 家庭主婦</t>
+    <t>n. 家庭主妇</t>
   </si>
   <si>
     <t>father</t>
@@ -925,10 +937,10 @@
     <t>['fɑðɚ]</t>
   </si>
   <si>
-    <t>n. 父親，爸爸；神父；祖先；前輩</t>
-  </si>
-  <si>
-    <t>vt. 發明，創立；當…的父親</t>
+    <t>n. 父亲，爸爸；神父；祖先；前辈</t>
+  </si>
+  <si>
+    <t>vt. 发明，创立；当…的父亲</t>
   </si>
   <si>
     <t>boyfriend</t>
@@ -949,10 +961,10 @@
     <t>['sɪstɚ]</t>
   </si>
   <si>
-    <t>n. 姐妹；（稱志同道合者）姐妹；修女；護士</t>
-  </si>
-  <si>
-    <t>adj. 姐妹般的；同類型的</t>
+    <t>n. 姐妹；（称志同道合者）姐妹；修女；护士</t>
+  </si>
+  <si>
+    <t>adj. 姐妹般的；同类型的</t>
   </si>
   <si>
     <t>mother</t>
@@ -961,10 +973,10 @@
     <t>['mʌðɚ]</t>
   </si>
   <si>
-    <t>n. 母親；大娘；女修道院院長</t>
-  </si>
-  <si>
-    <t>adj. 母親的；出生地的</t>
+    <t>n. 母亲；大娘；女修道院院长</t>
+  </si>
+  <si>
+    <t>adj. 母亲的；出生地的</t>
   </si>
   <si>
     <t>vt. 生下；养育；像母亲般关怀或照管</t>
@@ -976,10 +988,10 @@
     <t>[bɔs]</t>
   </si>
   <si>
-    <t>n. 老闆；首領；工頭</t>
-  </si>
-  <si>
-    <t>vt. 指揮，調遣；當…的領導</t>
+    <t>n. 老板；首领；工头</t>
+  </si>
+  <si>
+    <t>vt. 指挥，调遣；当…的领导</t>
   </si>
   <si>
     <t>vi. 当首领，发号施令</t>
@@ -991,10 +1003,10 @@
     <t>[səm]</t>
   </si>
   <si>
-    <t>adj. 一些；某個；大約；相當多的</t>
-  </si>
-  <si>
-    <t>pron. 一些；若干；其中的一部分；（數量不確切時用）有些人</t>
+    <t>adj. 一些；某个；大约；相当多的</t>
+  </si>
+  <si>
+    <t>pron. 一些；若干；其中的一部分；（数量不确切时用）有些人</t>
   </si>
   <si>
     <t>adv. 非常；相当；&lt;美&gt;稍微</t>
@@ -1006,10 +1018,10 @@
     <t>[wɝk]</t>
   </si>
   <si>
-    <t>n. 工作；[物] 功；產品；操作；職業；行為；事業；工廠；著作；文學、音樂或藝術作品</t>
-  </si>
-  <si>
-    <t>vt. 使工作；操作；經營；使緩慢前進</t>
+    <t>n. 工作；[物] 功；产品；操作；职业；行为；事业；工厂；著作；文学、音乐或艺术作品</t>
+  </si>
+  <si>
+    <t>vt. 使工作；操作；经营；使缓慢前进</t>
   </si>
   <si>
     <t>vi. 工作；运作；起作用</t>
@@ -1021,10 +1033,10 @@
     <t>['tebl]</t>
   </si>
   <si>
-    <t>n. 桌子；表格；平地層</t>
-  </si>
-  <si>
-    <t>vt. 製表；擱置；嵌合</t>
+    <t>n. 桌子；表格；平地层</t>
+  </si>
+  <si>
+    <t>vt. 制表；搁置；嵌合</t>
   </si>
   <si>
     <t>adj. 桌子的</t>
@@ -1072,7 +1084,7 @@
     <t>[ˈsʌnde; ˈsʌndi]</t>
   </si>
   <si>
-    <t>n. 星期日；禮拜日</t>
+    <t>n. 星期日；礼拜日</t>
   </si>
   <si>
     <t>afternoon</t>
@@ -1081,7 +1093,7 @@
     <t>[æftɚ'nun]</t>
   </si>
   <si>
-    <t>n. 午後，下午</t>
+    <t>n. 午后，下午</t>
   </si>
   <si>
     <t>noon</t>
@@ -1099,10 +1111,10 @@
     <t>[tə'de]</t>
   </si>
   <si>
-    <t>n. 今天；現今</t>
-  </si>
-  <si>
-    <t>adv. 今天；現今</t>
+    <t>n. 今天；现今</t>
+  </si>
+  <si>
+    <t>adv. 今天；现今</t>
   </si>
   <si>
     <t>n. (Today)人名；(英)托迪</t>
@@ -1114,10 +1126,10 @@
     <t>['ivnɪŋ]</t>
   </si>
   <si>
-    <t>n. 晚上；傍晚；（聯歡性的）晚會；後期</t>
-  </si>
-  <si>
-    <t>adj. 在晚上的；為晚上的；晚上用的</t>
+    <t>n. 晚上；傍晚；（联欢性的）晚会；后期</t>
+  </si>
+  <si>
+    <t>adj. 在晚上的；为晚上的；晚上用的</t>
   </si>
   <si>
     <t>int. 晚上好（等于good evening）</t>
@@ -1141,7 +1153,7 @@
     <t>n. 夜晚，晚上；黑暗，黑夜</t>
   </si>
   <si>
-    <t>adj. 夜晚的，夜間的</t>
+    <t>adj. 夜晚的，夜间的</t>
   </si>
   <si>
     <t>March</t>
@@ -1150,10 +1162,10 @@
     <t>[mɑrtʃ]</t>
   </si>
   <si>
-    <t>vi. （堅定地向某地）前進；行軍，進軍；遊行示威；進展，進行</t>
-  </si>
-  <si>
-    <t>n. 行進，前進；行軍；遊行示威；進行曲</t>
+    <t>vi. （坚定地向某地）前进；行军，进军；游行示威；进展，进行</t>
+  </si>
+  <si>
+    <t>n. 行进，前进；行军；游行示威；进行曲</t>
   </si>
   <si>
     <t>vt. 使前进；使行军</t>
@@ -1174,7 +1186,7 @@
     <t>[me]</t>
   </si>
   <si>
-    <t>aux. 可以，能夠；可能，也許；祝，願；會，能</t>
+    <t>aux. 可以，能够；可能，也许；祝，愿；会，能</t>
   </si>
   <si>
     <t>August</t>
@@ -1183,10 +1195,10 @@
     <t>[ɔɡəst]</t>
   </si>
   <si>
-    <t>n. 八月（簡寫為Aug）</t>
-  </si>
-  <si>
-    <t>adj. 威嚴的；令人敬畏的</t>
+    <t>n. 八月（简写为Aug）</t>
+  </si>
+  <si>
+    <t>adj. 威严的；令人敬畏的</t>
   </si>
   <si>
     <t>n. (August)人名；(法、葡、西、俄、罗、英、德、瑞典、挪)奥古斯特</t>
@@ -1240,7 +1252,7 @@
     <t>[mʌnθ]</t>
   </si>
   <si>
-    <t>n. 月，一個月的時間</t>
+    <t>n. 月，一个月的时间</t>
   </si>
   <si>
     <t>twice</t>
@@ -1249,7 +1261,7 @@
     <t>[twaɪs]</t>
   </si>
   <si>
-    <t>adv. 兩次；兩倍</t>
+    <t>adv. 两次；两倍</t>
   </si>
   <si>
     <t>cell phone</t>
@@ -1264,10 +1276,10 @@
     <t>[bʊk]</t>
   </si>
   <si>
-    <t>n. 書籍；卷；帳簿；名冊；工作簿</t>
-  </si>
-  <si>
-    <t>vt. 預訂；登記</t>
+    <t>n. 书籍；卷；帐簿；名册；工作簿</t>
+  </si>
+  <si>
+    <t>vt. 预订；登记</t>
   </si>
   <si>
     <t>n. (Book)人名；(中)卜(广东话·威妥玛)；(朝)北；(英)布克；(瑞典)博克</t>
@@ -1279,10 +1291,10 @@
     <t>[kʌp]</t>
   </si>
   <si>
-    <t>n. 杯子；獎盃；酒杯</t>
-  </si>
-  <si>
-    <t>vt. 使成杯狀；為…拔火罐</t>
+    <t>n. 杯子；奖杯；酒杯</t>
+  </si>
+  <si>
+    <t>vt. 使成杯状；为…拔火罐</t>
   </si>
   <si>
     <t>how</t>
@@ -1291,7 +1303,7 @@
     <t>[haʊ]</t>
   </si>
   <si>
-    <t>adv. 如何；多少；多麼</t>
+    <t>adv. 如何；多少；多么</t>
   </si>
   <si>
     <t>n. 方法；方式</t>
@@ -1306,7 +1318,7 @@
     <t>['ɔf(tə)n; 'ɑf(tə)n]</t>
   </si>
   <si>
-    <t>adv. 常常，時常</t>
+    <t>adv. 常常，时常</t>
   </si>
   <si>
     <t>seldom</t>
@@ -1318,7 +1330,7 @@
     <t>['nɛvɚ]</t>
   </si>
   <si>
-    <t>adv. 從未；決不</t>
+    <t>adv. 从未；决不</t>
   </si>
   <si>
     <t>sometimes</t>
@@ -1327,7 +1339,7 @@
     <t>['sʌmtaɪmz]</t>
   </si>
   <si>
-    <t>adv. 有時，間或</t>
+    <t>adv. 有时，间或</t>
   </si>
   <si>
     <t>usually</t>
@@ -1336,7 +1348,7 @@
     <t>['juʒuəli]</t>
   </si>
   <si>
-    <t>adv. 通常，經常</t>
+    <t>adv. 通常，经常</t>
   </si>
   <si>
     <t>rarely</t>
@@ -1345,7 +1357,7 @@
     <t>['rɛrli]</t>
   </si>
   <si>
-    <t>adv. 很少地；難得；罕有地</t>
+    <t>adv. 很少地；难得；罕有地</t>
   </si>
   <si>
     <t>year</t>
@@ -1354,7 +1366,7 @@
     <t>[jɪr]</t>
   </si>
   <si>
-    <t>n. 年；年度；歷年；年紀；一年的期間；某年級的學生</t>
+    <t>n. 年；年度；历年；年纪；一年的期间；某年级的学生</t>
   </si>
   <si>
     <t>little</t>
@@ -1363,10 +1375,10 @@
     <t>['lɪtl]</t>
   </si>
   <si>
-    <t>n. 少許；沒有多少；短時間</t>
-  </si>
-  <si>
-    <t>adj. 小的；很少的；短暫的；小巧可愛的</t>
+    <t>n. 少许；没有多少；短时间</t>
+  </si>
+  <si>
+    <t>adj. 小的；很少的；短暂的；小巧可爱的</t>
   </si>
   <si>
     <t>adv. 完全不</t>
@@ -1396,10 +1408,10 @@
     <t>[wɑnt]</t>
   </si>
   <si>
-    <t>n. 需要；缺乏；貧困；必需品</t>
-  </si>
-  <si>
-    <t>vt. 需要；希望；應該；缺少</t>
+    <t>n. 需要；缺乏；贫困；必需品</t>
+  </si>
+  <si>
+    <t>vt. 需要；希望；应该；缺少</t>
   </si>
   <si>
     <t>vi. 需要；缺少</t>
@@ -1411,10 +1423,10 @@
     <t>[tə'mɔro]</t>
   </si>
   <si>
-    <t>n. 明天；未來</t>
-  </si>
-  <si>
-    <t>adv. 明天；未來地（等於to-morrow）</t>
+    <t>n. 明天；未来</t>
+  </si>
+  <si>
+    <t>adv. 明天；未来地（等于to-morrow）</t>
   </si>
   <si>
     <t>yesterday</t>
@@ -1435,10 +1447,10 @@
     <t>[ple]</t>
   </si>
   <si>
-    <t>n. 遊戲；比賽；劇本</t>
-  </si>
-  <si>
-    <t>vt. 遊戲；扮演；演奏；播放；同…比賽</t>
+    <t>n. 游戏；比赛；剧本</t>
+  </si>
+  <si>
+    <t>vt. 游戏；扮演；演奏；播放；同…比赛</t>
   </si>
   <si>
     <t>vi. 演奏；玩耍；上演；参加比赛</t>
@@ -1450,7 +1462,7 @@
     <t>[mʌtʃ]</t>
   </si>
   <si>
-    <t>n. 許多，大量</t>
+    <t>n. 许多，大量</t>
   </si>
   <si>
     <t>adj. 大量的</t>
@@ -1468,10 +1480,10 @@
     <t>['mɛni]</t>
   </si>
   <si>
-    <t>adj. 許多的</t>
-  </si>
-  <si>
-    <t>pron. 許多；許多人</t>
+    <t>adj. 许多的</t>
+  </si>
+  <si>
+    <t>pron. 许多；许多人</t>
   </si>
   <si>
     <t>n. (Many)人名；(法)马尼</t>
@@ -1483,10 +1495,10 @@
     <t>[ðɪs]</t>
   </si>
   <si>
-    <t>adj. 這；本；這個；今</t>
-  </si>
-  <si>
-    <t>pron. 這；這個；這裡</t>
+    <t>adj. 这；本；这个；今</t>
+  </si>
+  <si>
+    <t>pron. 这；这个；这里</t>
   </si>
   <si>
     <t>adv. 这样地；这么</t>
@@ -1510,7 +1522,7 @@
     <t>adj. 那些的</t>
   </si>
   <si>
-    <t>pron. 那些（that的複數）</t>
+    <t>pron. 那些（that的复数）</t>
   </si>
   <si>
     <t>that</t>
@@ -1519,10 +1531,10 @@
     <t>[ðæt]</t>
   </si>
   <si>
-    <t>conj. 因為；以至於</t>
-  </si>
-  <si>
-    <t>adj. 那；那個</t>
+    <t>conj. 因为；以至于</t>
+  </si>
+  <si>
+    <t>adj. 那；那个</t>
   </si>
   <si>
     <t>pron. 那；那个</t>
@@ -1537,10 +1549,10 @@
     <t>[fju]</t>
   </si>
   <si>
-    <t>n. 很少數</t>
-  </si>
-  <si>
-    <t>adj. 很少的；幾乎沒有的</t>
+    <t>n. 很少数</t>
+  </si>
+  <si>
+    <t>adj. 很少的；几乎没有的</t>
   </si>
   <si>
     <t>pron. 很少</t>
@@ -1552,10 +1564,10 @@
     <t>[gɔlf]</t>
   </si>
   <si>
-    <t>n. 高爾夫球；高爾夫球運動</t>
-  </si>
-  <si>
-    <t>vi. 打高爾夫球</t>
+    <t>n. 高尔夫球；高尔夫球运动</t>
+  </si>
+  <si>
+    <t>vi. 打高尔夫球</t>
   </si>
   <si>
     <t>n. (Golf)人名；(西、挪)戈尔夫</t>
@@ -1573,7 +1585,7 @@
     <t>[ɪn'dʒɔɪ]</t>
   </si>
   <si>
-    <t>vt. 欣賞，享受；喜愛；使過得快活</t>
+    <t>vt. 欣赏，享受；喜爱；使过得快活</t>
   </si>
   <si>
     <t>hate</t>
@@ -1585,7 +1597,7 @@
     <t>n. 憎恨；反感</t>
   </si>
   <si>
-    <t>vt. 憎恨；厭惡；遺憾</t>
+    <t>vt. 憎恨；厌恶；遗憾</t>
   </si>
   <si>
     <t>vi. 仇恨</t>
@@ -1609,16 +1621,25 @@
     <t>adj. 同样的；相似的</t>
   </si>
   <si>
+    <t>vt. 喜欢；想；愿意</t>
+  </si>
+  <si>
+    <t>vi. 喜欢；希望</t>
+  </si>
+  <si>
+    <t>adv. 可能</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>[lʌv]</t>
   </si>
   <si>
-    <t>n. 戀愛；親愛的；酷愛；喜愛的事物；愛情，愛意；疼愛；熱愛；愛人，所愛之物</t>
-  </si>
-  <si>
-    <t>v. 愛，熱愛；愛戴；讚美，稱讚；喜愛；喜好；喜歡；愛慕</t>
+    <t>n. 恋爱；亲爱的；酷爱；喜爱的事物；爱情，爱意；疼爱；热爱；爱人，所爱之物</t>
+  </si>
+  <si>
+    <t>v. 爱，热爱；爱戴；赞美，称赞；喜爱；喜好；喜欢；爱慕</t>
   </si>
   <si>
     <t>n. （英）洛夫（人名）</t>
@@ -1630,10 +1651,10 @@
     <t>[bʌs]</t>
   </si>
   <si>
-    <t>n. 公共汽車</t>
-  </si>
-  <si>
-    <t>乘公共汽車</t>
+    <t>n. 公共汽车</t>
+  </si>
+  <si>
+    <t>乘公共汽车</t>
   </si>
   <si>
     <t>farm</t>
@@ -1642,10 +1663,10 @@
     <t>[fɑrm]</t>
   </si>
   <si>
-    <t>n. 農場；農家；畜牧場</t>
-  </si>
-  <si>
-    <t>vt. 養殖；耕種；佃出（土地）</t>
+    <t>n. 农场；农家；畜牧场</t>
+  </si>
+  <si>
+    <t>vt. 养殖；耕种；佃出（土地）</t>
   </si>
   <si>
     <t>vi. 种田，务农；经营农场</t>
@@ -1657,10 +1678,10 @@
     <t>[ruf]</t>
   </si>
   <si>
-    <t>n. 屋頂；最高處，頂部；最高限度</t>
-  </si>
-  <si>
-    <t>vt. 給…蓋屋頂，覆蓋</t>
+    <t>n. 屋顶；最高处，顶部；最高限度</t>
+  </si>
+  <si>
+    <t>vt. 给…盖屋顶，覆盖</t>
   </si>
   <si>
     <t>n. (Roof)人名；(英)鲁夫</t>
@@ -1672,10 +1693,10 @@
     <t>[ɡraʊnd]</t>
   </si>
   <si>
-    <t>n. 地面；土地；範圍；戰場</t>
-  </si>
-  <si>
-    <t>v. 研磨（grind的過去分詞）；壓迫</t>
+    <t>n. 地面；土地；范围；战场</t>
+  </si>
+  <si>
+    <t>v. 研磨（grind的过去分词）；压迫</t>
   </si>
   <si>
     <t>adj. 土地的；地面上的；磨碎的；磨过的</t>
@@ -1684,16 +1705,19 @@
     <t>vt. 使接触地面；打基础；使搁浅</t>
   </si>
   <si>
+    <t>vi. 着陆；搁浅</t>
+  </si>
+  <si>
     <t>floor</t>
   </si>
   <si>
     <t>[flɔr]</t>
   </si>
   <si>
-    <t>n. 地板，地面；樓層；基底；議員席</t>
-  </si>
-  <si>
-    <t>vt. 鋪地板；打倒，擊倒；（被困難）難倒</t>
+    <t>n. 地板，地面；楼层；基底；议员席</t>
+  </si>
+  <si>
+    <t>vt. 铺地板；打倒，击倒；（被困难）难倒</t>
   </si>
   <si>
     <t>wall</t>
@@ -1702,10 +1726,10 @@
     <t>[wɔl]</t>
   </si>
   <si>
-    <t>n. 牆壁，圍牆；似牆之物</t>
-  </si>
-  <si>
-    <t>adj. 牆壁的</t>
+    <t>n. 墙壁，围墙；似墙之物</t>
+  </si>
+  <si>
+    <t>adj. 墙壁的</t>
   </si>
   <si>
     <t>vt. 用墙围住，围以墙</t>
@@ -1717,7 +1741,7 @@
     <t>['kɪtʃɪn]</t>
   </si>
   <si>
-    <t>n. 廚房；炊具；炊事人員</t>
+    <t>n. 厨房；炊具；炊事人员</t>
   </si>
   <si>
     <t>living room</t>
@@ -1732,7 +1756,7 @@
     <t>['bæθrum]</t>
   </si>
   <si>
-    <t>n. 浴室；廁所；盥洗室</t>
+    <t>n. 浴室；厕所；盥洗室</t>
   </si>
   <si>
     <t>bedroom</t>
@@ -1741,10 +1765,10 @@
     <t>['bɛdrum]</t>
   </si>
   <si>
-    <t>n. 臥室</t>
-  </si>
-  <si>
-    <t>adj. 兩性關係的；城郊住宅區的</t>
+    <t>n. 卧室</t>
+  </si>
+  <si>
+    <t>adj. 两性关系的；城郊住宅区的</t>
   </si>
   <si>
     <t xml:space="preserve">listen to </t>
@@ -1756,7 +1780,7 @@
     <t>['tʃæmpɪənʃɪp]</t>
   </si>
   <si>
-    <t>n. 錦標賽；冠軍稱號；冠軍的地位</t>
+    <t>n. 锦标赛；冠军称号；冠军的地位</t>
   </si>
   <si>
     <t>letter</t>
@@ -1765,10 +1789,10 @@
     <t>['lɛtɚ]</t>
   </si>
   <si>
-    <t>n. 信；字母，文字；證書；文學，學問；字面意義</t>
-  </si>
-  <si>
-    <t>vt. 寫字母於</t>
+    <t>n. 信；字母，文字；证书；文学，学问；字面意义</t>
+  </si>
+  <si>
+    <t>vt. 写字母于</t>
   </si>
   <si>
     <t>vi. 写印刷体字母</t>
@@ -1780,10 +1804,10 @@
     <t>[ˈnɑːvl]</t>
   </si>
   <si>
-    <t>n. 小說</t>
-  </si>
-  <si>
-    <t>adj. 新奇的；異常的</t>
+    <t>n. 小说</t>
+  </si>
+  <si>
+    <t>adj. 新奇的；异常的</t>
   </si>
   <si>
     <t>n. (Novel)人名；(法、西、英)诺韦尔</t>
@@ -1795,7 +1819,7 @@
     <t>['lidɚʃɪp]</t>
   </si>
   <si>
-    <t>n. 領導能力；領導階層</t>
+    <t>n. 领导能力；领导阶层</t>
   </si>
   <si>
     <t>membership</t>
@@ -1804,7 +1828,7 @@
     <t>['mɛmbɚʃɪp]</t>
   </si>
   <si>
-    <t>n. 資格；成員資格；會員身份</t>
+    <t>n. 资格；成员资格；会员身份</t>
   </si>
   <si>
     <t>scuba diving</t>
@@ -1819,10 +1843,10 @@
     <t>[bæŋk]</t>
   </si>
   <si>
-    <t>n. 銀行；岸；淺灘；儲庫</t>
-  </si>
-  <si>
-    <t>vt. 將…存入銀行；傾斜轉彎</t>
+    <t>n. 银行；岸；浅滩；储库</t>
+  </si>
+  <si>
+    <t>vt. 将…存入银行；倾斜转弯</t>
   </si>
   <si>
     <t>vi. 堆积；倾斜转弯</t>
@@ -1852,10 +1876,10 @@
     <t>[stɔr]</t>
   </si>
   <si>
-    <t>n. 商店；儲備，貯藏；倉庫</t>
-  </si>
-  <si>
-    <t>vt. 貯藏，儲存</t>
+    <t>n. 商店；储备，贮藏；仓库</t>
+  </si>
+  <si>
+    <t>vt. 贮藏，储存</t>
   </si>
   <si>
     <t>n. (Store)人名；(德)施托雷</t>
@@ -1873,7 +1897,7 @@
     <t>['ɔfɪs]</t>
   </si>
   <si>
-    <t>n. 辦公室；政府機關；官職；營業處</t>
+    <t>n. 办公室；政府机关；官职；营业处</t>
   </si>
 </sst>
 </file>
@@ -2210,7 +2234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2218,7 +2242,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2238,7 +2262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2246,7 +2270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2262,9 +2286,8 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s"/>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2272,7 +2295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -2288,2419 +2311,2176 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s"/>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s"/>
-    </row>
-    <row r="8" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-    </row>
-    <row r="10" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-    </row>
-    <row r="12" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s"/>
-    </row>
-    <row r="13" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-    </row>
-    <row r="14" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s"/>
-      <c r="E16" t="s"/>
-      <c r="F16" t="s"/>
-    </row>
-    <row r="17" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s"/>
-    </row>
-    <row r="18" spans="1:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s"/>
-      <c r="E18" t="s"/>
-      <c r="F18" t="s"/>
-    </row>
-    <row r="19" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" t="s"/>
-    </row>
-    <row r="20" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" t="s"/>
-    </row>
-    <row r="25" spans="1:6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" t="s"/>
-    </row>
-    <row r="27" spans="1:6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" t="s"/>
-      <c r="E29" t="s"/>
-      <c r="F29" t="s"/>
-    </row>
-    <row r="30" spans="1:6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" t="s"/>
-      <c r="E30" t="s"/>
-      <c r="F30" t="s"/>
-    </row>
-    <row r="31" spans="1:6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" t="s"/>
-      <c r="E31" t="s"/>
-      <c r="F31" t="s"/>
-    </row>
-    <row r="32" spans="1:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" t="s"/>
-    </row>
-    <row r="34" spans="1:6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" t="s"/>
-      <c r="F35" t="s"/>
-    </row>
-    <row r="36" spans="1:6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" t="s"/>
-      <c r="E36" t="s"/>
-      <c r="F36" t="s"/>
-    </row>
-    <row r="37" spans="1:6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" t="s"/>
-      <c r="E37" t="s"/>
-      <c r="F37" t="s"/>
-    </row>
-    <row r="38" spans="1:6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" t="s"/>
-    </row>
-    <row r="39" spans="1:6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" t="s"/>
-      <c r="E40" t="s"/>
-      <c r="F40" t="s"/>
-    </row>
-    <row r="41" spans="1:6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" t="s">
+        <v>196</v>
+      </c>
+      <c r="F52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" t="s">
+        <v>203</v>
+      </c>
+      <c r="E54" t="s">
+        <v>204</v>
+      </c>
+      <c r="F54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" t="s">
+        <v>221</v>
+      </c>
+      <c r="C59" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>225</v>
+      </c>
+      <c r="B61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" t="s">
+        <v>227</v>
+      </c>
+      <c r="D61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>232</v>
+      </c>
+      <c r="B63" t="s">
+        <v>233</v>
+      </c>
+      <c r="C63" t="s">
+        <v>234</v>
+      </c>
+      <c r="D63" t="s">
+        <v>235</v>
+      </c>
+      <c r="E63" t="s">
+        <v>236</v>
+      </c>
+      <c r="F63" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>238</v>
+      </c>
+      <c r="B64" t="s">
+        <v>239</v>
+      </c>
+      <c r="C64" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" t="s">
+        <v>244</v>
+      </c>
+      <c r="E65" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" t="s">
+        <v>254</v>
+      </c>
+      <c r="C69" t="s">
+        <v>255</v>
+      </c>
+      <c r="D69" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>258</v>
+      </c>
+      <c r="B70" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70" t="s">
+        <v>260</v>
+      </c>
+      <c r="D70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" t="s">
+        <v>263</v>
+      </c>
+      <c r="C71" t="s">
+        <v>264</v>
+      </c>
+      <c r="D71" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>267</v>
+      </c>
+      <c r="B73" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>270</v>
+      </c>
+      <c r="B74" t="s">
+        <v>271</v>
+      </c>
+      <c r="C74" t="s">
+        <v>272</v>
+      </c>
+      <c r="D74" t="s">
+        <v>273</v>
+      </c>
+      <c r="E74" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>275</v>
+      </c>
+      <c r="B75" t="s">
+        <v>276</v>
+      </c>
+      <c r="C75" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>278</v>
+      </c>
+      <c r="B76" t="s">
+        <v>279</v>
+      </c>
+      <c r="C76" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" t="s">
+        <v>283</v>
+      </c>
+      <c r="D77" t="s">
+        <v>284</v>
+      </c>
+      <c r="E77" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>286</v>
+      </c>
+      <c r="B78" t="s">
+        <v>287</v>
+      </c>
+      <c r="C78" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>289</v>
+      </c>
+      <c r="B79" t="s">
+        <v>290</v>
+      </c>
+      <c r="C79" t="s">
+        <v>291</v>
+      </c>
+      <c r="D79" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>293</v>
+      </c>
+      <c r="B80" t="s">
+        <v>294</v>
+      </c>
+      <c r="C80" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>296</v>
+      </c>
+      <c r="B81" t="s">
+        <v>297</v>
+      </c>
+      <c r="C81" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>299</v>
+      </c>
+      <c r="B82" t="s">
+        <v>300</v>
+      </c>
+      <c r="C82" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>302</v>
+      </c>
+      <c r="B83" t="s">
+        <v>303</v>
+      </c>
+      <c r="C83" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>305</v>
+      </c>
+      <c r="B84" t="s">
+        <v>306</v>
+      </c>
+      <c r="C84" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>310</v>
+      </c>
+      <c r="B86" t="s">
+        <v>311</v>
+      </c>
+      <c r="C86" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>313</v>
+      </c>
+      <c r="B87" t="s">
+        <v>314</v>
+      </c>
+      <c r="C87" t="s">
+        <v>315</v>
+      </c>
+      <c r="D87" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>317</v>
+      </c>
+      <c r="B88" t="s">
+        <v>318</v>
+      </c>
+      <c r="C88" t="s">
+        <v>319</v>
+      </c>
+      <c r="D88" t="s">
+        <v>320</v>
+      </c>
+      <c r="E88" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>322</v>
+      </c>
+      <c r="B89" t="s">
+        <v>323</v>
+      </c>
+      <c r="C89" t="s">
+        <v>324</v>
+      </c>
+      <c r="D89" t="s">
+        <v>325</v>
+      </c>
+      <c r="E89" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>327</v>
+      </c>
+      <c r="B90" t="s">
+        <v>328</v>
+      </c>
+      <c r="C90" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" t="s">
+        <v>330</v>
+      </c>
+      <c r="E90" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>332</v>
+      </c>
+      <c r="B91" t="s">
+        <v>333</v>
+      </c>
+      <c r="C91" t="s">
+        <v>334</v>
+      </c>
+      <c r="D91" t="s">
+        <v>335</v>
+      </c>
+      <c r="E91" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>337</v>
+      </c>
+      <c r="B92" t="s">
+        <v>338</v>
+      </c>
+      <c r="C92" t="s">
+        <v>339</v>
+      </c>
+      <c r="D92" t="s">
+        <v>340</v>
+      </c>
+      <c r="E92" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>342</v>
+      </c>
+      <c r="B93" t="s">
+        <v>343</v>
+      </c>
+      <c r="C93" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>345</v>
+      </c>
+      <c r="B94" t="s">
+        <v>346</v>
+      </c>
+      <c r="C94" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>348</v>
+      </c>
+      <c r="B95" t="s">
+        <v>349</v>
+      </c>
+      <c r="C95" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>351</v>
+      </c>
+      <c r="B96" t="s">
+        <v>352</v>
+      </c>
+      <c r="C96" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>354</v>
+      </c>
+      <c r="B97" t="s">
+        <v>355</v>
+      </c>
+      <c r="C97" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>357</v>
+      </c>
+      <c r="B98" t="s">
+        <v>358</v>
+      </c>
+      <c r="C98" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>360</v>
+      </c>
+      <c r="B99" t="s">
+        <v>361</v>
+      </c>
+      <c r="C99" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>363</v>
+      </c>
+      <c r="B100" t="s">
+        <v>364</v>
+      </c>
+      <c r="C100" t="s">
+        <v>365</v>
+      </c>
+      <c r="D100" t="s">
+        <v>366</v>
+      </c>
+      <c r="E100" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>368</v>
+      </c>
+      <c r="B101" t="s">
+        <v>369</v>
+      </c>
+      <c r="C101" t="s">
+        <v>370</v>
+      </c>
+      <c r="D101" t="s">
+        <v>371</v>
+      </c>
+      <c r="E101" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>373</v>
+      </c>
+      <c r="B102" t="s">
+        <v>374</v>
+      </c>
+      <c r="C102" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>376</v>
+      </c>
+      <c r="B103" t="s">
+        <v>377</v>
+      </c>
+      <c r="C103" t="s">
+        <v>378</v>
+      </c>
+      <c r="D103" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>380</v>
+      </c>
+      <c r="B104" t="s">
+        <v>381</v>
+      </c>
+      <c r="C104" t="s">
+        <v>382</v>
+      </c>
+      <c r="D104" t="s">
+        <v>383</v>
+      </c>
+      <c r="E104" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>385</v>
+      </c>
+      <c r="B105" t="s">
+        <v>386</v>
+      </c>
+      <c r="C105" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>388</v>
+      </c>
+      <c r="B106" t="s">
+        <v>389</v>
+      </c>
+      <c r="C106" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>391</v>
+      </c>
+      <c r="B107" t="s">
+        <v>392</v>
+      </c>
+      <c r="C107" t="s">
+        <v>393</v>
+      </c>
+      <c r="D107" t="s">
+        <v>394</v>
+      </c>
+      <c r="E107" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>396</v>
+      </c>
+      <c r="B108" t="s">
         <v>145</v>
       </c>
-      <c r="C41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" t="s"/>
-      <c r="E41" t="s"/>
-      <c r="F41" t="s"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" t="s"/>
-      <c r="E42" t="s"/>
-      <c r="F42" t="s"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>150</v>
-      </c>
-      <c r="B43" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" t="s">
-        <v>154</v>
-      </c>
-      <c r="F43" t="s"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" t="s">
-        <v>157</v>
-      </c>
-      <c r="D44" t="s"/>
-      <c r="E44" t="s"/>
-      <c r="F44" t="s"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>158</v>
-      </c>
-      <c r="B45" t="s">
-        <v>159</v>
-      </c>
-      <c r="C45" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" t="s">
-        <v>161</v>
-      </c>
-      <c r="E45" t="s"/>
-      <c r="F45" t="s"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>162</v>
-      </c>
-      <c r="B46" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" t="s">
-        <v>164</v>
-      </c>
-      <c r="D46" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" t="s">
-        <v>166</v>
-      </c>
-      <c r="F46" t="s"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>167</v>
-      </c>
-      <c r="B47" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" t="s">
-        <v>170</v>
-      </c>
-      <c r="E47" t="s"/>
-      <c r="F47" t="s"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B48" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" t="s">
-        <v>173</v>
-      </c>
-      <c r="D48" t="s">
-        <v>174</v>
-      </c>
-      <c r="E48" t="s">
-        <v>175</v>
-      </c>
-      <c r="F48" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" t="s">
-        <v>178</v>
-      </c>
-      <c r="C49" t="s">
-        <v>179</v>
-      </c>
-      <c r="D49" t="s">
-        <v>180</v>
-      </c>
-      <c r="E49" t="s">
-        <v>181</v>
-      </c>
-      <c r="F49" t="s"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>182</v>
-      </c>
-      <c r="B50" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50" t="s">
-        <v>185</v>
-      </c>
-      <c r="E50" t="s">
-        <v>186</v>
-      </c>
-      <c r="F50" t="s"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>188</v>
-      </c>
-      <c r="B52" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" t="s">
-        <v>190</v>
-      </c>
-      <c r="D52" t="s">
-        <v>191</v>
-      </c>
-      <c r="E52" t="s">
-        <v>192</v>
-      </c>
-      <c r="F52" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>194</v>
-      </c>
-      <c r="B53" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>196</v>
-      </c>
-      <c r="B54" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E54" t="s">
-        <v>200</v>
-      </c>
-      <c r="F54" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>202</v>
-      </c>
-      <c r="B55" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" t="s">
-        <v>204</v>
-      </c>
-      <c r="D55" t="s"/>
-      <c r="E55" t="s"/>
-      <c r="F55" t="s"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>205</v>
-      </c>
-      <c r="B56" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56" t="s"/>
-      <c r="E56" t="s"/>
-      <c r="F56" t="s"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>208</v>
-      </c>
-      <c r="B57" t="s">
-        <v>209</v>
-      </c>
-      <c r="C57" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" t="s"/>
-      <c r="E57" t="s"/>
-      <c r="F57" t="s"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>211</v>
-      </c>
-      <c r="B58" t="s">
-        <v>212</v>
-      </c>
-      <c r="C58" t="s">
-        <v>213</v>
-      </c>
-      <c r="D58" t="s">
-        <v>214</v>
-      </c>
-      <c r="E58" t="s">
-        <v>215</v>
-      </c>
-      <c r="F58" t="s"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>216</v>
-      </c>
-      <c r="B59" t="s">
-        <v>217</v>
-      </c>
-      <c r="C59" t="s">
-        <v>218</v>
-      </c>
-      <c r="D59" t="s">
-        <v>219</v>
-      </c>
-      <c r="E59" t="s"/>
-      <c r="F59" t="s"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>221</v>
-      </c>
-      <c r="B61" t="s">
-        <v>222</v>
-      </c>
-      <c r="C61" t="s">
-        <v>223</v>
-      </c>
-      <c r="D61" t="s">
-        <v>224</v>
-      </c>
-      <c r="E61" t="s"/>
-      <c r="F61" t="s"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>225</v>
-      </c>
-      <c r="B62" t="s">
-        <v>226</v>
-      </c>
-      <c r="C62" t="s">
-        <v>227</v>
-      </c>
-      <c r="D62" t="s"/>
-      <c r="E62" t="s"/>
-      <c r="F62" t="s"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>228</v>
-      </c>
-      <c r="B63" t="s">
-        <v>229</v>
-      </c>
-      <c r="C63" t="s">
-        <v>230</v>
-      </c>
-      <c r="D63" t="s">
-        <v>231</v>
-      </c>
-      <c r="E63" t="s">
-        <v>232</v>
-      </c>
-      <c r="F63" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>234</v>
-      </c>
-      <c r="B64" t="s">
-        <v>235</v>
-      </c>
-      <c r="C64" t="s">
-        <v>236</v>
-      </c>
-      <c r="D64" t="s"/>
-      <c r="E64" t="s"/>
-      <c r="F64" t="s"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>237</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C108" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>398</v>
+      </c>
+      <c r="B109" t="s">
+        <v>399</v>
+      </c>
+      <c r="C109" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>401</v>
+      </c>
+      <c r="B110" t="s">
+        <v>402</v>
+      </c>
+      <c r="C110" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>404</v>
+      </c>
+      <c r="B111" t="s">
+        <v>405</v>
+      </c>
+      <c r="C111" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>407</v>
+      </c>
+      <c r="B112" t="s">
+        <v>408</v>
+      </c>
+      <c r="C112" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>410</v>
+      </c>
+      <c r="B113" t="s">
+        <v>411</v>
+      </c>
+      <c r="C113" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>413</v>
+      </c>
+      <c r="B114" t="s">
+        <v>414</v>
+      </c>
+      <c r="C114" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>416</v>
+      </c>
+      <c r="B115" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>418</v>
+      </c>
+      <c r="B116" t="s">
+        <v>419</v>
+      </c>
+      <c r="C116" t="s">
+        <v>420</v>
+      </c>
+      <c r="D116" t="s">
+        <v>421</v>
+      </c>
+      <c r="E116" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>423</v>
+      </c>
+      <c r="B117" t="s">
+        <v>424</v>
+      </c>
+      <c r="C117" t="s">
+        <v>425</v>
+      </c>
+      <c r="D117" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>427</v>
+      </c>
+      <c r="B118" t="s">
+        <v>428</v>
+      </c>
+      <c r="C118" t="s">
+        <v>429</v>
+      </c>
+      <c r="D118" t="s">
+        <v>430</v>
+      </c>
+      <c r="E118" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>432</v>
+      </c>
+      <c r="B119" t="s">
+        <v>433</v>
+      </c>
+      <c r="C119" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>436</v>
+      </c>
+      <c r="B121" t="s">
+        <v>437</v>
+      </c>
+      <c r="C121" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>439</v>
+      </c>
+      <c r="B122" t="s">
+        <v>440</v>
+      </c>
+      <c r="C122" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>442</v>
+      </c>
+      <c r="B123" t="s">
+        <v>443</v>
+      </c>
+      <c r="C123" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>445</v>
+      </c>
+      <c r="B124" t="s">
+        <v>446</v>
+      </c>
+      <c r="C124" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>448</v>
+      </c>
+      <c r="B125" t="s">
+        <v>449</v>
+      </c>
+      <c r="C125" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>451</v>
+      </c>
+      <c r="B126" t="s">
+        <v>452</v>
+      </c>
+      <c r="C126" t="s">
+        <v>453</v>
+      </c>
+      <c r="D126" t="s">
+        <v>454</v>
+      </c>
+      <c r="E126" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>456</v>
+      </c>
+      <c r="B127" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>458</v>
+      </c>
+      <c r="B128" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>460</v>
+      </c>
+      <c r="B129" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>462</v>
+      </c>
+      <c r="B130" t="s">
+        <v>463</v>
+      </c>
+      <c r="C130" t="s">
+        <v>464</v>
+      </c>
+      <c r="D130" t="s">
+        <v>465</v>
+      </c>
+      <c r="E130" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
         <v>238</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B131" t="s">
         <v>239</v>
       </c>
-      <c r="D65" t="s">
+      <c r="C131" t="s">
         <v>240</v>
       </c>
-      <c r="E65" t="s">
-        <v>241</v>
-      </c>
-      <c r="F65" t="s"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>242</v>
-      </c>
-      <c r="B66" t="s">
-        <v>243</v>
-      </c>
-      <c r="C66" t="s">
-        <v>244</v>
-      </c>
-      <c r="D66" t="s"/>
-      <c r="E66" t="s"/>
-      <c r="F66" t="s"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>246</v>
-      </c>
-      <c r="B68" t="s">
-        <v>247</v>
-      </c>
-      <c r="C68" t="s">
-        <v>248</v>
-      </c>
-      <c r="D68" t="s"/>
-      <c r="E68" t="s"/>
-      <c r="F68" t="s"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>249</v>
-      </c>
-      <c r="B69" t="s">
-        <v>250</v>
-      </c>
-      <c r="C69" t="s">
-        <v>251</v>
-      </c>
-      <c r="D69" t="s">
-        <v>252</v>
-      </c>
-      <c r="E69" t="s">
-        <v>253</v>
-      </c>
-      <c r="F69" t="s"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>254</v>
-      </c>
-      <c r="B70" t="s">
-        <v>255</v>
-      </c>
-      <c r="C70" t="s">
-        <v>256</v>
-      </c>
-      <c r="D70" t="s">
-        <v>257</v>
-      </c>
-      <c r="E70" t="s"/>
-      <c r="F70" t="s"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>258</v>
-      </c>
-      <c r="B71" t="s">
-        <v>259</v>
-      </c>
-      <c r="C71" t="s">
-        <v>260</v>
-      </c>
-      <c r="D71" t="s">
-        <v>261</v>
-      </c>
-      <c r="E71" t="s"/>
-      <c r="F71" t="s"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>263</v>
-      </c>
-      <c r="B73" t="s">
-        <v>264</v>
-      </c>
-      <c r="C73" t="s">
-        <v>265</v>
-      </c>
-      <c r="D73" t="s"/>
-      <c r="E73" t="s"/>
-      <c r="F73" t="s"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>266</v>
-      </c>
-      <c r="B74" t="s">
-        <v>267</v>
-      </c>
-      <c r="C74" t="s">
-        <v>268</v>
-      </c>
-      <c r="D74" t="s">
-        <v>269</v>
-      </c>
-      <c r="E74" t="s">
-        <v>270</v>
-      </c>
-      <c r="F74" t="s"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>271</v>
-      </c>
-      <c r="B75" t="s">
-        <v>272</v>
-      </c>
-      <c r="C75" t="s">
-        <v>273</v>
-      </c>
-      <c r="D75" t="s"/>
-      <c r="E75" t="s"/>
-      <c r="F75" t="s"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>274</v>
-      </c>
-      <c r="B76" t="s">
-        <v>275</v>
-      </c>
-      <c r="C76" t="s">
-        <v>276</v>
-      </c>
-      <c r="D76" t="s"/>
-      <c r="E76" t="s"/>
-      <c r="F76" t="s"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>277</v>
-      </c>
-      <c r="B77" t="s">
-        <v>278</v>
-      </c>
-      <c r="C77" t="s">
-        <v>279</v>
-      </c>
-      <c r="D77" t="s">
-        <v>280</v>
-      </c>
-      <c r="E77" t="s">
-        <v>281</v>
-      </c>
-      <c r="F77" t="s"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>282</v>
-      </c>
-      <c r="B78" t="s">
-        <v>283</v>
-      </c>
-      <c r="C78" t="s">
-        <v>284</v>
-      </c>
-      <c r="D78" t="s"/>
-      <c r="E78" t="s"/>
-      <c r="F78" t="s"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>285</v>
-      </c>
-      <c r="B79" t="s">
-        <v>286</v>
-      </c>
-      <c r="C79" t="s">
-        <v>287</v>
-      </c>
-      <c r="D79" t="s">
-        <v>288</v>
-      </c>
-      <c r="E79" t="s"/>
-      <c r="F79" t="s"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>289</v>
-      </c>
-      <c r="B80" t="s">
-        <v>290</v>
-      </c>
-      <c r="C80" t="s">
-        <v>291</v>
-      </c>
-      <c r="D80" t="s"/>
-      <c r="E80" t="s"/>
-      <c r="F80" t="s"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>292</v>
-      </c>
-      <c r="B81" t="s">
-        <v>293</v>
-      </c>
-      <c r="C81" t="s">
-        <v>294</v>
-      </c>
-      <c r="D81" t="s"/>
-      <c r="E81" t="s"/>
-      <c r="F81" t="s"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>295</v>
-      </c>
-      <c r="B82" t="s">
-        <v>296</v>
-      </c>
-      <c r="C82" t="s">
-        <v>297</v>
-      </c>
-      <c r="D82" t="s"/>
-      <c r="E82" t="s"/>
-      <c r="F82" t="s"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>298</v>
-      </c>
-      <c r="B83" t="s">
-        <v>299</v>
-      </c>
-      <c r="C83" t="s">
-        <v>300</v>
-      </c>
-      <c r="D83" t="s"/>
-      <c r="E83" t="s"/>
-      <c r="F83" t="s"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>301</v>
-      </c>
-      <c r="B84" t="s">
-        <v>302</v>
-      </c>
-      <c r="C84" t="s">
-        <v>303</v>
-      </c>
-      <c r="D84" t="s">
-        <v>304</v>
-      </c>
-      <c r="E84" t="s"/>
-      <c r="F84" t="s"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>306</v>
-      </c>
-      <c r="B86" t="s">
-        <v>307</v>
-      </c>
-      <c r="C86" t="s">
-        <v>308</v>
-      </c>
-      <c r="D86" t="s"/>
-      <c r="E86" t="s"/>
-      <c r="F86" t="s"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>309</v>
-      </c>
-      <c r="B87" t="s">
-        <v>310</v>
-      </c>
-      <c r="C87" t="s">
-        <v>311</v>
-      </c>
-      <c r="D87" t="s">
-        <v>312</v>
-      </c>
-      <c r="E87" t="s"/>
-      <c r="F87" t="s"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>313</v>
-      </c>
-      <c r="B88" t="s">
-        <v>314</v>
-      </c>
-      <c r="C88" t="s">
-        <v>315</v>
-      </c>
-      <c r="D88" t="s">
-        <v>316</v>
-      </c>
-      <c r="E88" t="s">
-        <v>317</v>
-      </c>
-      <c r="F88" t="s"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>318</v>
-      </c>
-      <c r="B89" t="s">
-        <v>319</v>
-      </c>
-      <c r="C89" t="s">
-        <v>320</v>
-      </c>
-      <c r="D89" t="s">
-        <v>321</v>
-      </c>
-      <c r="E89" t="s">
-        <v>322</v>
-      </c>
-      <c r="F89" t="s"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>323</v>
-      </c>
-      <c r="B90" t="s">
-        <v>324</v>
-      </c>
-      <c r="C90" t="s">
-        <v>325</v>
-      </c>
-      <c r="D90" t="s">
-        <v>326</v>
-      </c>
-      <c r="E90" t="s">
-        <v>327</v>
-      </c>
-      <c r="F90" t="s"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>328</v>
-      </c>
-      <c r="B91" t="s">
-        <v>329</v>
-      </c>
-      <c r="C91" t="s">
-        <v>330</v>
-      </c>
-      <c r="D91" t="s">
-        <v>331</v>
-      </c>
-      <c r="E91" t="s">
-        <v>332</v>
-      </c>
-      <c r="F91" t="s"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>333</v>
-      </c>
-      <c r="B92" t="s">
-        <v>334</v>
-      </c>
-      <c r="C92" t="s">
-        <v>335</v>
-      </c>
-      <c r="D92" t="s">
-        <v>336</v>
-      </c>
-      <c r="E92" t="s">
-        <v>337</v>
-      </c>
-      <c r="F92" t="s"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>338</v>
-      </c>
-      <c r="B93" t="s">
-        <v>339</v>
-      </c>
-      <c r="C93" t="s">
-        <v>340</v>
-      </c>
-      <c r="D93" t="s"/>
-      <c r="E93" t="s"/>
-      <c r="F93" t="s"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>341</v>
-      </c>
-      <c r="B94" t="s">
-        <v>342</v>
-      </c>
-      <c r="C94" t="s">
-        <v>343</v>
-      </c>
-      <c r="D94" t="s"/>
-      <c r="E94" t="s"/>
-      <c r="F94" t="s"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>344</v>
-      </c>
-      <c r="B95" t="s">
-        <v>345</v>
-      </c>
-      <c r="C95" t="s">
-        <v>346</v>
-      </c>
-      <c r="D95" t="s"/>
-      <c r="E95" t="s"/>
-      <c r="F95" t="s"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>347</v>
-      </c>
-      <c r="B96" t="s">
-        <v>348</v>
-      </c>
-      <c r="C96" t="s">
-        <v>349</v>
-      </c>
-      <c r="D96" t="s"/>
-      <c r="E96" t="s"/>
-      <c r="F96" t="s"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>350</v>
-      </c>
-      <c r="B97" t="s">
-        <v>351</v>
-      </c>
-      <c r="C97" t="s">
-        <v>352</v>
-      </c>
-      <c r="D97" t="s"/>
-      <c r="E97" t="s"/>
-      <c r="F97" t="s"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>353</v>
-      </c>
-      <c r="B98" t="s">
-        <v>354</v>
-      </c>
-      <c r="C98" t="s">
-        <v>355</v>
-      </c>
-      <c r="D98" t="s"/>
-      <c r="E98" t="s"/>
-      <c r="F98" t="s"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>356</v>
-      </c>
-      <c r="B99" t="s">
-        <v>357</v>
-      </c>
-      <c r="C99" t="s">
-        <v>358</v>
-      </c>
-      <c r="D99" t="s"/>
-      <c r="E99" t="s"/>
-      <c r="F99" t="s"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>359</v>
-      </c>
-      <c r="B100" t="s">
-        <v>360</v>
-      </c>
-      <c r="C100" t="s">
-        <v>361</v>
-      </c>
-      <c r="D100" t="s">
-        <v>362</v>
-      </c>
-      <c r="E100" t="s">
-        <v>363</v>
-      </c>
-      <c r="F100" t="s"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>364</v>
-      </c>
-      <c r="B101" t="s">
-        <v>365</v>
-      </c>
-      <c r="C101" t="s">
-        <v>366</v>
-      </c>
-      <c r="D101" t="s">
-        <v>367</v>
-      </c>
-      <c r="E101" t="s">
-        <v>368</v>
-      </c>
-      <c r="F101" t="s"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>369</v>
-      </c>
-      <c r="B102" t="s">
-        <v>370</v>
-      </c>
-      <c r="C102" t="s">
-        <v>371</v>
-      </c>
-      <c r="D102" t="s"/>
-      <c r="E102" t="s"/>
-      <c r="F102" t="s"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
-        <v>372</v>
-      </c>
-      <c r="B103" t="s">
-        <v>373</v>
-      </c>
-      <c r="C103" t="s">
-        <v>374</v>
-      </c>
-      <c r="D103" t="s">
-        <v>375</v>
-      </c>
-      <c r="E103" t="s"/>
-      <c r="F103" t="s"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
-        <v>376</v>
-      </c>
-      <c r="B104" t="s">
-        <v>377</v>
-      </c>
-      <c r="C104" t="s">
-        <v>378</v>
-      </c>
-      <c r="D104" t="s">
-        <v>379</v>
-      </c>
-      <c r="E104" t="s">
-        <v>380</v>
-      </c>
-      <c r="F104" t="s"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" t="s">
-        <v>381</v>
-      </c>
-      <c r="B105" t="s">
-        <v>382</v>
-      </c>
-      <c r="C105" t="s">
-        <v>383</v>
-      </c>
-      <c r="D105" t="s"/>
-      <c r="E105" t="s"/>
-      <c r="F105" t="s"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
-        <v>384</v>
-      </c>
-      <c r="B106" t="s">
-        <v>385</v>
-      </c>
-      <c r="C106" t="s">
-        <v>386</v>
-      </c>
-      <c r="D106" t="s"/>
-      <c r="E106" t="s"/>
-      <c r="F106" t="s"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" t="s">
-        <v>387</v>
-      </c>
-      <c r="B107" t="s">
-        <v>388</v>
-      </c>
-      <c r="C107" t="s">
-        <v>389</v>
-      </c>
-      <c r="D107" t="s">
-        <v>390</v>
-      </c>
-      <c r="E107" t="s">
-        <v>391</v>
-      </c>
-      <c r="F107" t="s"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
-        <v>392</v>
-      </c>
-      <c r="B108" t="s">
-        <v>142</v>
-      </c>
-      <c r="C108" t="s">
-        <v>393</v>
-      </c>
-      <c r="D108" t="s"/>
-      <c r="E108" t="s"/>
-      <c r="F108" t="s"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
-        <v>394</v>
-      </c>
-      <c r="B109" t="s">
-        <v>395</v>
-      </c>
-      <c r="C109" t="s">
-        <v>396</v>
-      </c>
-      <c r="D109" t="s"/>
-      <c r="E109" t="s"/>
-      <c r="F109" t="s"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
-        <v>397</v>
-      </c>
-      <c r="B110" t="s">
-        <v>398</v>
-      </c>
-      <c r="C110" t="s">
-        <v>399</v>
-      </c>
-      <c r="D110" t="s"/>
-      <c r="E110" t="s"/>
-      <c r="F110" t="s"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>400</v>
-      </c>
-      <c r="B111" t="s">
-        <v>401</v>
-      </c>
-      <c r="C111" t="s">
-        <v>402</v>
-      </c>
-      <c r="D111" t="s"/>
-      <c r="E111" t="s"/>
-      <c r="F111" t="s"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
-        <v>403</v>
-      </c>
-      <c r="B112" t="s">
-        <v>404</v>
-      </c>
-      <c r="C112" t="s">
-        <v>405</v>
-      </c>
-      <c r="D112" t="s"/>
-      <c r="E112" t="s"/>
-      <c r="F112" t="s"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" t="s">
-        <v>406</v>
-      </c>
-      <c r="B113" t="s">
-        <v>407</v>
-      </c>
-      <c r="C113" t="s">
-        <v>408</v>
-      </c>
-      <c r="D113" t="s"/>
-      <c r="E113" t="s"/>
-      <c r="F113" t="s"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" t="s">
-        <v>409</v>
-      </c>
-      <c r="B114" t="s">
-        <v>410</v>
-      </c>
-      <c r="C114" t="s">
-        <v>411</v>
-      </c>
-      <c r="D114" t="s"/>
-      <c r="E114" t="s"/>
-      <c r="F114" t="s"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" t="s">
-        <v>412</v>
-      </c>
-      <c r="B115" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" t="s">
-        <v>414</v>
-      </c>
-      <c r="B116" t="s">
-        <v>415</v>
-      </c>
-      <c r="C116" t="s">
-        <v>416</v>
-      </c>
-      <c r="D116" t="s">
-        <v>417</v>
-      </c>
-      <c r="E116" t="s">
-        <v>418</v>
-      </c>
-      <c r="F116" t="s"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" t="s">
-        <v>419</v>
-      </c>
-      <c r="B117" t="s">
-        <v>420</v>
-      </c>
-      <c r="C117" t="s">
-        <v>421</v>
-      </c>
-      <c r="D117" t="s">
-        <v>422</v>
-      </c>
-      <c r="E117" t="s"/>
-      <c r="F117" t="s"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" t="s">
-        <v>423</v>
-      </c>
-      <c r="B118" t="s">
-        <v>424</v>
-      </c>
-      <c r="C118" t="s">
-        <v>425</v>
-      </c>
-      <c r="D118" t="s">
-        <v>426</v>
-      </c>
-      <c r="E118" t="s">
-        <v>427</v>
-      </c>
-      <c r="F118" t="s"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
-        <v>428</v>
-      </c>
-      <c r="B119" t="s">
-        <v>429</v>
-      </c>
-      <c r="C119" t="s">
-        <v>430</v>
-      </c>
-      <c r="D119" t="s"/>
-      <c r="E119" t="s"/>
-      <c r="F119" t="s"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" t="s">
-        <v>432</v>
-      </c>
-      <c r="B121" t="s">
-        <v>433</v>
-      </c>
-      <c r="C121" t="s">
-        <v>434</v>
-      </c>
-      <c r="D121" t="s"/>
-      <c r="E121" t="s"/>
-      <c r="F121" t="s"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" t="s">
-        <v>435</v>
-      </c>
-      <c r="B122" t="s">
-        <v>436</v>
-      </c>
-      <c r="C122" t="s">
-        <v>437</v>
-      </c>
-      <c r="D122" t="s"/>
-      <c r="E122" t="s"/>
-      <c r="F122" t="s"/>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" t="s">
-        <v>438</v>
-      </c>
-      <c r="B123" t="s">
-        <v>439</v>
-      </c>
-      <c r="C123" t="s">
-        <v>440</v>
-      </c>
-      <c r="D123" t="s"/>
-      <c r="E123" t="s"/>
-      <c r="F123" t="s"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" t="s">
-        <v>441</v>
-      </c>
-      <c r="B124" t="s">
-        <v>442</v>
-      </c>
-      <c r="C124" t="s">
-        <v>443</v>
-      </c>
-      <c r="D124" t="s"/>
-      <c r="E124" t="s"/>
-      <c r="F124" t="s"/>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" t="s">
-        <v>444</v>
-      </c>
-      <c r="B125" t="s">
-        <v>445</v>
-      </c>
-      <c r="C125" t="s">
-        <v>446</v>
-      </c>
-      <c r="D125" t="s"/>
-      <c r="E125" t="s"/>
-      <c r="F125" t="s"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" t="s">
-        <v>447</v>
-      </c>
-      <c r="B126" t="s">
-        <v>448</v>
-      </c>
-      <c r="C126" t="s">
-        <v>449</v>
-      </c>
-      <c r="D126" t="s">
-        <v>450</v>
-      </c>
-      <c r="E126" t="s">
-        <v>451</v>
-      </c>
-      <c r="F126" t="s"/>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" t="s">
-        <v>452</v>
-      </c>
-      <c r="B127" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" t="s">
-        <v>454</v>
-      </c>
-      <c r="B128" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" t="s">
-        <v>456</v>
-      </c>
-      <c r="B129" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" t="s">
-        <v>458</v>
-      </c>
-      <c r="B130" t="s">
-        <v>459</v>
-      </c>
-      <c r="C130" t="s">
-        <v>460</v>
-      </c>
-      <c r="D130" t="s">
-        <v>461</v>
-      </c>
-      <c r="E130" t="s">
-        <v>462</v>
-      </c>
-      <c r="F130" t="s"/>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" t="s">
-        <v>234</v>
-      </c>
-      <c r="B131" t="s">
-        <v>235</v>
-      </c>
-      <c r="C131" t="s">
-        <v>236</v>
-      </c>
-      <c r="D131" t="s"/>
-      <c r="E131" t="s"/>
-      <c r="F131" t="s"/>
-    </row>
-    <row r="132" spans="1:6">
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B132" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C132" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D132" t="s">
-        <v>466</v>
-      </c>
-      <c r="E132" t="s"/>
-      <c r="F132" t="s"/>
-    </row>
-    <row r="133" spans="1:6">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B133" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C133" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D133" t="s">
-        <v>470</v>
-      </c>
-      <c r="E133" t="s"/>
-      <c r="F133" t="s"/>
-    </row>
-    <row r="134" spans="1:6">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B134" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C134" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D134" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E134" t="s">
-        <v>475</v>
-      </c>
-      <c r="F134" t="s"/>
-    </row>
-    <row r="135" spans="1:6">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B135" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C135" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D135" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E135" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F135" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B136" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C136" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D136" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E136" t="s">
-        <v>486</v>
-      </c>
-      <c r="F136" t="s"/>
-    </row>
-    <row r="137" spans="1:6">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B137" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C137" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D137" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E137" t="s">
-        <v>491</v>
-      </c>
-      <c r="F137" t="s"/>
-    </row>
-    <row r="138" spans="1:6">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B138" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C138" t="s">
-        <v>494</v>
-      </c>
-      <c r="D138" t="s"/>
-      <c r="E138" t="s"/>
-      <c r="F138" t="s"/>
-    </row>
-    <row r="139" spans="1:6">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B139" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C139" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D139" t="s">
-        <v>498</v>
-      </c>
-      <c r="E139" t="s"/>
-      <c r="F139" t="s"/>
-    </row>
-    <row r="140" spans="1:6">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B140" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C140" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D140" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E140" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F140" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B141" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C141" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D141" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E141" t="s">
-        <v>509</v>
-      </c>
-      <c r="F141" t="s"/>
-    </row>
-    <row r="142" spans="1:6">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B142" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C142" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D142" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E142" t="s">
-        <v>514</v>
-      </c>
-      <c r="F142" t="s"/>
-    </row>
-    <row r="143" spans="1:6">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B145" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C145" t="s">
-        <v>519</v>
-      </c>
-      <c r="D145" t="s"/>
-      <c r="E145" t="s"/>
-      <c r="F145" t="s"/>
-    </row>
-    <row r="146" spans="1:6">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B146" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C146" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D146" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E146" t="s">
-        <v>524</v>
-      </c>
-      <c r="F146" t="s"/>
-    </row>
-    <row r="147" spans="1:6">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B147" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C147" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D147" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E147" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="F147" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>534</v>
+      </c>
+      <c r="G147" t="s">
+        <v>535</v>
+      </c>
+      <c r="H147" t="s">
+        <v>536</v>
+      </c>
+      <c r="I147" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B148" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C148" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="D148" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="E148" t="s">
-        <v>535</v>
-      </c>
-      <c r="F148" t="s"/>
-    </row>
-    <row r="149" spans="1:6">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="B149" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C149" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="D149" t="s">
-        <v>539</v>
-      </c>
-      <c r="E149" t="s"/>
-      <c r="F149" t="s"/>
-    </row>
-    <row r="150" spans="1:6">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B150" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="C150" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="D150" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="E150" t="s">
-        <v>544</v>
-      </c>
-      <c r="F150" t="s"/>
-    </row>
-    <row r="151" spans="1:6">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B151" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="C151" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="D151" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="E151" t="s">
-        <v>549</v>
-      </c>
-      <c r="F151" t="s"/>
-    </row>
-    <row r="152" spans="1:6">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B152" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C152" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D152" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="E152" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="F152" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>562</v>
+      </c>
+      <c r="G152" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="B153" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="C153" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="D153" t="s">
-        <v>559</v>
-      </c>
-      <c r="E153" t="s"/>
-      <c r="F153" t="s"/>
-    </row>
-    <row r="154" spans="1:6">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="B154" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C154" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="D154" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="E154" t="s">
-        <v>564</v>
-      </c>
-      <c r="F154" t="s"/>
-    </row>
-    <row r="155" spans="1:6">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B155" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="C155" t="s">
-        <v>567</v>
-      </c>
-      <c r="D155" t="s"/>
-      <c r="E155" t="s"/>
-      <c r="F155" t="s"/>
-    </row>
-    <row r="156" spans="1:6">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="B156" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="B157" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="C157" t="s">
-        <v>572</v>
-      </c>
-      <c r="D157" t="s"/>
-      <c r="E157" t="s"/>
-      <c r="F157" t="s"/>
-    </row>
-    <row r="158" spans="1:6">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="B158" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="C158" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D158" t="s">
-        <v>576</v>
-      </c>
-      <c r="E158" t="s"/>
-      <c r="F158" t="s"/>
-    </row>
-    <row r="159" spans="1:6">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B160" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="C160" t="s">
-        <v>580</v>
-      </c>
-      <c r="D160" t="s"/>
-      <c r="E160" t="s"/>
-      <c r="F160" t="s"/>
-    </row>
-    <row r="161" spans="1:6">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B161" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="C161" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="D161" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="E161" t="s">
-        <v>585</v>
-      </c>
-      <c r="F161" t="s"/>
-    </row>
-    <row r="162" spans="1:6">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="B162" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="C162" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="D162" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="E162" t="s">
-        <v>590</v>
-      </c>
-      <c r="F162" t="s"/>
-    </row>
-    <row r="163" spans="1:6">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B163" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="C163" t="s">
-        <v>593</v>
-      </c>
-      <c r="D163" t="s"/>
-      <c r="E163" t="s"/>
-      <c r="F163" t="s"/>
-    </row>
-    <row r="164" spans="1:6">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="B164" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="C164" t="s">
-        <v>596</v>
-      </c>
-      <c r="D164" t="s"/>
-      <c r="E164" t="s"/>
-      <c r="F164" t="s"/>
-    </row>
-    <row r="165" spans="1:6">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B165" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B166" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="C166" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="D166" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="E166" t="s">
-        <v>603</v>
-      </c>
-      <c r="F166" t="s"/>
-    </row>
-    <row r="167" spans="1:6">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B167" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="B168" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="B169" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="B170" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="C170" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="D170" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="E170" t="s">
-        <v>614</v>
-      </c>
-      <c r="F170" t="s"/>
-    </row>
-    <row r="171" spans="1:6">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="B171" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="B172" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="C172" t="s">
-        <v>619</v>
-      </c>
-      <c r="D172" t="s"/>
-      <c r="E172" t="s"/>
-      <c r="F172" t="s"/>
+        <v>627</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
